--- a/data/TC003_EditLead.xlsx
+++ b/data/TC003_EditLead.xlsx
@@ -1,28 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{47FE3AF1-9817-46EE-94E0-D1149F305C3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamun\git\POMFramework\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F612296B-C914-4EA9-BADD-0B5344080659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="23280" windowHeight="13224" xr2:uid="{8FBD255F-29DD-4F24-958F-9BC98E0D4904}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8FBD255F-29DD-4F24-958F-9BC98E0D4904}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -43,9 +39,6 @@
     <t>FirstName</t>
   </si>
   <si>
-    <t>Gopi</t>
-  </si>
-  <si>
     <t>ChangeCompanyName</t>
   </si>
   <si>
@@ -53,6 +46,9 @@
   </si>
   <si>
     <t>CTS</t>
+  </si>
+  <si>
+    <t>Hema</t>
   </si>
 </sst>
 </file>
@@ -421,7 +417,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -450,13 +446,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
